--- a/1.1)PRO1_LAB1_SPD_MAT_ARSO/5.2-ARSO - TN/3.4-2do Parcial File system y Redes .xlsx
+++ b/1.1)PRO1_LAB1_SPD_MAT_ARSO/5.2-ARSO - TN/3.4-2do Parcial File system y Redes .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguels\Desktop\Programacion\5-UTN\UTN\1.1)PRO1_LAB1_SPD_MAT_ARSO\5-ARSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguels\Desktop\Programacion\5-UTN\UTN\1.1)PRO1_LAB1_SPD_MAT_ARSO\5.2-ARSO - TN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD2627B-644A-4D5A-8475-44AC6005C4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AF82DF-FD4C-4B5E-9940-9F52F32BC6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27795" yWindow="3150" windowWidth="22215" windowHeight="24540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="1770" windowWidth="27930" windowHeight="21525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,10 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>213425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -111,7 +111,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1" y="1"/>
-          <a:ext cx="7528624" cy="3276600"/>
+          <a:ext cx="6991349" cy="3042768"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -125,13 +125,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>160482</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>184447</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -154,8 +154,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3524251"/>
-          <a:ext cx="8791575" cy="2922731"/>
+          <a:off x="0" y="3438526"/>
+          <a:ext cx="6829425" cy="2270421"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -168,14 +168,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>146603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>89369</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>150246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -198,8 +198,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6562726"/>
-          <a:ext cx="7810500" cy="3051643"/>
+          <a:off x="0" y="6242603"/>
+          <a:ext cx="7850257" cy="3051643"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -216,10 +216,10 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>485340</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>77266</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -243,7 +243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9648825"/>
-          <a:ext cx="7800540" cy="2905125"/>
+          <a:ext cx="6524625" cy="2429941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -288,6 +288,1793 @@
         <a:xfrm>
           <a:off x="0" y="13039726"/>
           <a:ext cx="8620125" cy="3831166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>73753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D4FD51-FC46-4369-D552-9E744613EA9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734176" y="9867900"/>
+          <a:ext cx="6534150" cy="2397853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>410404</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>410915</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF83AAE1-7786-2AC2-42E3-B9CDFCD7F259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11442839" y="0"/>
+          <a:ext cx="3677989" cy="2000529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594571</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAB3721-4863-0854-950D-74FE4DB3299A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="0"/>
+          <a:ext cx="3052021" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>505439</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>162227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85031F98-EF2F-B998-7262-1B2E1D7A613E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296275" y="6572250"/>
+          <a:ext cx="4401164" cy="2162477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>43810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>362636</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676E0B80-202C-CBE3-4F44-3AB3E274D676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600949" y="3472810"/>
+          <a:ext cx="3734487" cy="2109227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>41403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400844</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD4119E-A4BE-E51C-2F12-A379FEDFD256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="12995403"/>
+          <a:ext cx="5172869" cy="3769175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>472110</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>101378</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2650CC9F-7CA8-47D6-2B72-CBD90CC17E54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7214153" y="0"/>
+          <a:ext cx="3919660" cy="2706810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142223</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC305D7-B002-C8B7-BD49-EA201D7E1269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4432614" y="6402457"/>
+          <a:ext cx="2627004" cy="2145195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198784</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>100190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396687</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF152312-0E88-3902-D66E-BE2B1FAC7BAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2650436" y="9625190"/>
+          <a:ext cx="2036642" cy="2111267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>46464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>195145</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>140269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1541C64-6C72-6D24-50D6-7C6C28E21EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11239500" y="3094464"/>
+          <a:ext cx="8598312" cy="2951305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>253394</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>122944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B710925E-0364-0502-6C91-CF923939C001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12964583" y="6085416"/>
+          <a:ext cx="3248478" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>391584</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector recto de flecha 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB1DC07-C275-C329-35D3-D0858F6A67FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6529917" y="4741333"/>
+          <a:ext cx="6572250" cy="1545167"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>116417</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163343</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Forma libre: forma 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73F5CCA-D02F-EDE3-53CC-CC3A5758B528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11165417" y="3671599"/>
+          <a:ext cx="1926166" cy="2587744"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 1926166 w 1926166"/>
+            <a:gd name="connsiteY0" fmla="*/ 2572568 h 2587744"/>
+            <a:gd name="connsiteX1" fmla="*/ 1608666 w 1926166"/>
+            <a:gd name="connsiteY1" fmla="*/ 2572568 h 2587744"/>
+            <a:gd name="connsiteX2" fmla="*/ 1354666 w 1926166"/>
+            <a:gd name="connsiteY2" fmla="*/ 2530234 h 2587744"/>
+            <a:gd name="connsiteX3" fmla="*/ 1047750 w 1926166"/>
+            <a:gd name="connsiteY3" fmla="*/ 2424401 h 2587744"/>
+            <a:gd name="connsiteX4" fmla="*/ 973666 w 1926166"/>
+            <a:gd name="connsiteY4" fmla="*/ 2403234 h 2587744"/>
+            <a:gd name="connsiteX5" fmla="*/ 910166 w 1926166"/>
+            <a:gd name="connsiteY5" fmla="*/ 2371484 h 2587744"/>
+            <a:gd name="connsiteX6" fmla="*/ 804333 w 1926166"/>
+            <a:gd name="connsiteY6" fmla="*/ 2339734 h 2587744"/>
+            <a:gd name="connsiteX7" fmla="*/ 645583 w 1926166"/>
+            <a:gd name="connsiteY7" fmla="*/ 2265651 h 2587744"/>
+            <a:gd name="connsiteX8" fmla="*/ 550333 w 1926166"/>
+            <a:gd name="connsiteY8" fmla="*/ 2212734 h 2587744"/>
+            <a:gd name="connsiteX9" fmla="*/ 423333 w 1926166"/>
+            <a:gd name="connsiteY9" fmla="*/ 2075151 h 2587744"/>
+            <a:gd name="connsiteX10" fmla="*/ 370416 w 1926166"/>
+            <a:gd name="connsiteY10" fmla="*/ 2032818 h 2587744"/>
+            <a:gd name="connsiteX11" fmla="*/ 317500 w 1926166"/>
+            <a:gd name="connsiteY11" fmla="*/ 1948151 h 2587744"/>
+            <a:gd name="connsiteX12" fmla="*/ 275166 w 1926166"/>
+            <a:gd name="connsiteY12" fmla="*/ 1895234 h 2587744"/>
+            <a:gd name="connsiteX13" fmla="*/ 211666 w 1926166"/>
+            <a:gd name="connsiteY13" fmla="*/ 1768234 h 2587744"/>
+            <a:gd name="connsiteX14" fmla="*/ 179916 w 1926166"/>
+            <a:gd name="connsiteY14" fmla="*/ 1715318 h 2587744"/>
+            <a:gd name="connsiteX15" fmla="*/ 158750 w 1926166"/>
+            <a:gd name="connsiteY15" fmla="*/ 1641234 h 2587744"/>
+            <a:gd name="connsiteX16" fmla="*/ 137583 w 1926166"/>
+            <a:gd name="connsiteY16" fmla="*/ 1577734 h 2587744"/>
+            <a:gd name="connsiteX17" fmla="*/ 95250 w 1926166"/>
+            <a:gd name="connsiteY17" fmla="*/ 1408401 h 2587744"/>
+            <a:gd name="connsiteX18" fmla="*/ 74083 w 1926166"/>
+            <a:gd name="connsiteY18" fmla="*/ 1355484 h 2587744"/>
+            <a:gd name="connsiteX19" fmla="*/ 52916 w 1926166"/>
+            <a:gd name="connsiteY19" fmla="*/ 1249651 h 2587744"/>
+            <a:gd name="connsiteX20" fmla="*/ 42333 w 1926166"/>
+            <a:gd name="connsiteY20" fmla="*/ 1207318 h 2587744"/>
+            <a:gd name="connsiteX21" fmla="*/ 31750 w 1926166"/>
+            <a:gd name="connsiteY21" fmla="*/ 1133234 h 2587744"/>
+            <a:gd name="connsiteX22" fmla="*/ 10583 w 1926166"/>
+            <a:gd name="connsiteY22" fmla="*/ 1069734 h 2587744"/>
+            <a:gd name="connsiteX23" fmla="*/ 0 w 1926166"/>
+            <a:gd name="connsiteY23" fmla="*/ 1037984 h 2587744"/>
+            <a:gd name="connsiteX24" fmla="*/ 10583 w 1926166"/>
+            <a:gd name="connsiteY24" fmla="*/ 688734 h 2587744"/>
+            <a:gd name="connsiteX25" fmla="*/ 21166 w 1926166"/>
+            <a:gd name="connsiteY25" fmla="*/ 646401 h 2587744"/>
+            <a:gd name="connsiteX26" fmla="*/ 84666 w 1926166"/>
+            <a:gd name="connsiteY26" fmla="*/ 551151 h 2587744"/>
+            <a:gd name="connsiteX27" fmla="*/ 137583 w 1926166"/>
+            <a:gd name="connsiteY27" fmla="*/ 477068 h 2587744"/>
+            <a:gd name="connsiteX28" fmla="*/ 222250 w 1926166"/>
+            <a:gd name="connsiteY28" fmla="*/ 413568 h 2587744"/>
+            <a:gd name="connsiteX29" fmla="*/ 391583 w 1926166"/>
+            <a:gd name="connsiteY29" fmla="*/ 297151 h 2587744"/>
+            <a:gd name="connsiteX30" fmla="*/ 433916 w 1926166"/>
+            <a:gd name="connsiteY30" fmla="*/ 265401 h 2587744"/>
+            <a:gd name="connsiteX31" fmla="*/ 486833 w 1926166"/>
+            <a:gd name="connsiteY31" fmla="*/ 244234 h 2587744"/>
+            <a:gd name="connsiteX32" fmla="*/ 613833 w 1926166"/>
+            <a:gd name="connsiteY32" fmla="*/ 223068 h 2587744"/>
+            <a:gd name="connsiteX33" fmla="*/ 656166 w 1926166"/>
+            <a:gd name="connsiteY33" fmla="*/ 212484 h 2587744"/>
+            <a:gd name="connsiteX34" fmla="*/ 762000 w 1926166"/>
+            <a:gd name="connsiteY34" fmla="*/ 191318 h 2587744"/>
+            <a:gd name="connsiteX35" fmla="*/ 1703916 w 1926166"/>
+            <a:gd name="connsiteY35" fmla="*/ 180734 h 2587744"/>
+            <a:gd name="connsiteX36" fmla="*/ 1735666 w 1926166"/>
+            <a:gd name="connsiteY36" fmla="*/ 148984 h 2587744"/>
+            <a:gd name="connsiteX37" fmla="*/ 1746250 w 1926166"/>
+            <a:gd name="connsiteY37" fmla="*/ 96068 h 2587744"/>
+            <a:gd name="connsiteX38" fmla="*/ 1756833 w 1926166"/>
+            <a:gd name="connsiteY38" fmla="*/ 64318 h 2587744"/>
+            <a:gd name="connsiteX39" fmla="*/ 1746250 w 1926166"/>
+            <a:gd name="connsiteY39" fmla="*/ 11401 h 2587744"/>
+            <a:gd name="connsiteX40" fmla="*/ 1661583 w 1926166"/>
+            <a:gd name="connsiteY40" fmla="*/ 818 h 2587744"/>
+            <a:gd name="connsiteX41" fmla="*/ 1502833 w 1926166"/>
+            <a:gd name="connsiteY41" fmla="*/ 11401 h 2587744"/>
+            <a:gd name="connsiteX42" fmla="*/ 1502833 w 1926166"/>
+            <a:gd name="connsiteY42" fmla="*/ 148984 h 2587744"/>
+            <a:gd name="connsiteX43" fmla="*/ 1524000 w 1926166"/>
+            <a:gd name="connsiteY43" fmla="*/ 191318 h 2587744"/>
+            <a:gd name="connsiteX44" fmla="*/ 1555750 w 1926166"/>
+            <a:gd name="connsiteY44" fmla="*/ 244234 h 2587744"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1926166" h="2587744">
+              <a:moveTo>
+                <a:pt x="1926166" y="2572568"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1792486" y="2591665"/>
+                <a:pt x="1809277" y="2593910"/>
+                <a:pt x="1608666" y="2572568"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1523313" y="2563488"/>
+                <a:pt x="1437654" y="2552155"/>
+                <a:pt x="1354666" y="2530234"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1250038" y="2502596"/>
+                <a:pt x="1151803" y="2454131"/>
+                <a:pt x="1047750" y="2424401"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1023055" y="2417345"/>
+                <a:pt x="997637" y="2412454"/>
+                <a:pt x="973666" y="2403234"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="951578" y="2394739"/>
+                <a:pt x="932324" y="2379793"/>
+                <a:pt x="910166" y="2371484"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="875680" y="2358552"/>
+                <a:pt x="839064" y="2351992"/>
+                <a:pt x="804333" y="2339734"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="754267" y="2322064"/>
+                <a:pt x="692012" y="2288866"/>
+                <a:pt x="645583" y="2265651"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="626532" y="2256126"/>
+                <a:pt x="571768" y="2232025"/>
+                <a:pt x="550333" y="2212734"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="359498" y="2040982"/>
+                <a:pt x="575349" y="2227166"/>
+                <a:pt x="423333" y="2075151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="407360" y="2059178"/>
+                <a:pt x="388055" y="2046929"/>
+                <a:pt x="370416" y="2032818"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="352777" y="2004596"/>
+                <a:pt x="336444" y="1975514"/>
+                <a:pt x="317500" y="1948151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="304642" y="1929578"/>
+                <a:pt x="286619" y="1914704"/>
+                <a:pt x="275166" y="1895234"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="251169" y="1854439"/>
+                <a:pt x="236017" y="1808819"/>
+                <a:pt x="211666" y="1768234"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="179916" y="1715318"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="172861" y="1690623"/>
+                <a:pt x="166303" y="1665781"/>
+                <a:pt x="158750" y="1641234"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="152189" y="1619909"/>
+                <a:pt x="143454" y="1599259"/>
+                <a:pt x="137583" y="1577734"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="122274" y="1521603"/>
+                <a:pt x="116858" y="1462421"/>
+                <a:pt x="95250" y="1408401"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="88194" y="1390762"/>
+                <a:pt x="78978" y="1373840"/>
+                <a:pt x="74083" y="1355484"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="64813" y="1320722"/>
+                <a:pt x="60454" y="1284829"/>
+                <a:pt x="52916" y="1249651"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="49868" y="1235429"/>
+                <a:pt x="44935" y="1221629"/>
+                <a:pt x="42333" y="1207318"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="37871" y="1182775"/>
+                <a:pt x="37359" y="1157541"/>
+                <a:pt x="31750" y="1133234"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="26733" y="1111494"/>
+                <a:pt x="17639" y="1090901"/>
+                <a:pt x="10583" y="1069734"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="1037984"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="3528" y="921567"/>
+                <a:pt x="4297" y="805034"/>
+                <a:pt x="10583" y="688734"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11368" y="674210"/>
+                <a:pt x="15764" y="659906"/>
+                <a:pt x="21166" y="646401"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="56617" y="557774"/>
+                <a:pt x="38075" y="607060"/>
+                <a:pt x="84666" y="551151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="106120" y="525407"/>
+                <a:pt x="111372" y="500896"/>
+                <a:pt x="137583" y="477068"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="163687" y="453338"/>
+                <a:pt x="194703" y="435606"/>
+                <a:pt x="222250" y="413568"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="445745" y="234771"/>
+                <a:pt x="235721" y="390669"/>
+                <a:pt x="391583" y="297151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="406708" y="288076"/>
+                <a:pt x="418497" y="273967"/>
+                <a:pt x="433916" y="265401"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="450523" y="256175"/>
+                <a:pt x="468340" y="248585"/>
+                <a:pt x="486833" y="244234"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="528609" y="234404"/>
+                <a:pt x="572197" y="233478"/>
+                <a:pt x="613833" y="223068"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="627944" y="219540"/>
+                <a:pt x="641944" y="215532"/>
+                <a:pt x="656166" y="212484"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="691344" y="204946"/>
+                <a:pt x="726026" y="191722"/>
+                <a:pt x="762000" y="191318"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1703916" y="180734"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1714499" y="170151"/>
+                <a:pt x="1728972" y="162371"/>
+                <a:pt x="1735666" y="148984"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1743711" y="132895"/>
+                <a:pt x="1741887" y="113519"/>
+                <a:pt x="1746250" y="96068"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1748956" y="85245"/>
+                <a:pt x="1753305" y="74901"/>
+                <a:pt x="1756833" y="64318"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1753305" y="46679"/>
+                <a:pt x="1761217" y="21379"/>
+                <a:pt x="1746250" y="11401"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1722585" y="-4376"/>
+                <a:pt x="1690025" y="818"/>
+                <a:pt x="1661583" y="818"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1608549" y="818"/>
+                <a:pt x="1555750" y="7873"/>
+                <a:pt x="1502833" y="11401"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1487610" y="72293"/>
+                <a:pt x="1483818" y="66583"/>
+                <a:pt x="1502833" y="148984"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1506381" y="164357"/>
+                <a:pt x="1516338" y="177526"/>
+                <a:pt x="1524000" y="191318"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1533990" y="209299"/>
+                <a:pt x="1555750" y="244234"/>
+                <a:pt x="1555750" y="244234"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>306917</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector recto de flecha 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CC72D3-C5B6-6AFA-5A1E-2EA84A48D9EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="4751917"/>
+          <a:ext cx="5281083" cy="2264833"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto de flecha 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E10D8E1-D030-6CAD-F724-F7D8AAE89B1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9429750" y="4159250"/>
+          <a:ext cx="4889500" cy="3386667"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>154184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Forma libre: forma 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3D760B-B02A-A91A-BFA2-C64DCEC6C1A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1608667" y="4345184"/>
+          <a:ext cx="15864416" cy="8037316"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 15864416"/>
+            <a:gd name="connsiteY0" fmla="*/ 7486983 h 8037316"/>
+            <a:gd name="connsiteX1" fmla="*/ 63500 w 15864416"/>
+            <a:gd name="connsiteY1" fmla="*/ 7497566 h 8037316"/>
+            <a:gd name="connsiteX2" fmla="*/ 275166 w 15864416"/>
+            <a:gd name="connsiteY2" fmla="*/ 7539899 h 8037316"/>
+            <a:gd name="connsiteX3" fmla="*/ 1195916 w 15864416"/>
+            <a:gd name="connsiteY3" fmla="*/ 7582233 h 8037316"/>
+            <a:gd name="connsiteX4" fmla="*/ 1629833 w 15864416"/>
+            <a:gd name="connsiteY4" fmla="*/ 7656316 h 8037316"/>
+            <a:gd name="connsiteX5" fmla="*/ 1873250 w 15864416"/>
+            <a:gd name="connsiteY5" fmla="*/ 7698649 h 8037316"/>
+            <a:gd name="connsiteX6" fmla="*/ 2159000 w 15864416"/>
+            <a:gd name="connsiteY6" fmla="*/ 7762149 h 8037316"/>
+            <a:gd name="connsiteX7" fmla="*/ 2381250 w 15864416"/>
+            <a:gd name="connsiteY7" fmla="*/ 7783316 h 8037316"/>
+            <a:gd name="connsiteX8" fmla="*/ 3196166 w 15864416"/>
+            <a:gd name="connsiteY8" fmla="*/ 7804483 h 8037316"/>
+            <a:gd name="connsiteX9" fmla="*/ 6424083 w 15864416"/>
+            <a:gd name="connsiteY9" fmla="*/ 7846816 h 8037316"/>
+            <a:gd name="connsiteX10" fmla="*/ 7016750 w 15864416"/>
+            <a:gd name="connsiteY10" fmla="*/ 7942066 h 8037316"/>
+            <a:gd name="connsiteX11" fmla="*/ 7493000 w 15864416"/>
+            <a:gd name="connsiteY11" fmla="*/ 7994983 h 8037316"/>
+            <a:gd name="connsiteX12" fmla="*/ 8583083 w 15864416"/>
+            <a:gd name="connsiteY12" fmla="*/ 8037316 h 8037316"/>
+            <a:gd name="connsiteX13" fmla="*/ 11832166 w 15864416"/>
+            <a:gd name="connsiteY13" fmla="*/ 8005566 h 8037316"/>
+            <a:gd name="connsiteX14" fmla="*/ 12255500 w 15864416"/>
+            <a:gd name="connsiteY14" fmla="*/ 7910316 h 8037316"/>
+            <a:gd name="connsiteX15" fmla="*/ 12721166 w 15864416"/>
+            <a:gd name="connsiteY15" fmla="*/ 7730399 h 8037316"/>
+            <a:gd name="connsiteX16" fmla="*/ 12932833 w 15864416"/>
+            <a:gd name="connsiteY16" fmla="*/ 7571649 h 8037316"/>
+            <a:gd name="connsiteX17" fmla="*/ 13790083 w 15864416"/>
+            <a:gd name="connsiteY17" fmla="*/ 6164066 h 8037316"/>
+            <a:gd name="connsiteX18" fmla="*/ 14202833 w 15864416"/>
+            <a:gd name="connsiteY18" fmla="*/ 5275066 h 8037316"/>
+            <a:gd name="connsiteX19" fmla="*/ 14446250 w 15864416"/>
+            <a:gd name="connsiteY19" fmla="*/ 4682399 h 8037316"/>
+            <a:gd name="connsiteX20" fmla="*/ 14509750 w 15864416"/>
+            <a:gd name="connsiteY20" fmla="*/ 4502483 h 8037316"/>
+            <a:gd name="connsiteX21" fmla="*/ 14562666 w 15864416"/>
+            <a:gd name="connsiteY21" fmla="*/ 4386066 h 8037316"/>
+            <a:gd name="connsiteX22" fmla="*/ 14626166 w 15864416"/>
+            <a:gd name="connsiteY22" fmla="*/ 4216733 h 8037316"/>
+            <a:gd name="connsiteX23" fmla="*/ 14679083 w 15864416"/>
+            <a:gd name="connsiteY23" fmla="*/ 4089733 h 8037316"/>
+            <a:gd name="connsiteX24" fmla="*/ 14721416 w 15864416"/>
+            <a:gd name="connsiteY24" fmla="*/ 3994483 h 8037316"/>
+            <a:gd name="connsiteX25" fmla="*/ 14827250 w 15864416"/>
+            <a:gd name="connsiteY25" fmla="*/ 3719316 h 8037316"/>
+            <a:gd name="connsiteX26" fmla="*/ 14901333 w 15864416"/>
+            <a:gd name="connsiteY26" fmla="*/ 3549983 h 8037316"/>
+            <a:gd name="connsiteX27" fmla="*/ 14943666 w 15864416"/>
+            <a:gd name="connsiteY27" fmla="*/ 3751066 h 8037316"/>
+            <a:gd name="connsiteX28" fmla="*/ 14837833 w 15864416"/>
+            <a:gd name="connsiteY28" fmla="*/ 4100316 h 8037316"/>
+            <a:gd name="connsiteX29" fmla="*/ 14954250 w 15864416"/>
+            <a:gd name="connsiteY29" fmla="*/ 4301399 h 8037316"/>
+            <a:gd name="connsiteX30" fmla="*/ 15504583 w 15864416"/>
+            <a:gd name="connsiteY30" fmla="*/ 3687566 h 8037316"/>
+            <a:gd name="connsiteX31" fmla="*/ 15811500 w 15864416"/>
+            <a:gd name="connsiteY31" fmla="*/ 3221899 h 8037316"/>
+            <a:gd name="connsiteX32" fmla="*/ 15864416 w 15864416"/>
+            <a:gd name="connsiteY32" fmla="*/ 3073733 h 8037316"/>
+            <a:gd name="connsiteX33" fmla="*/ 15811500 w 15864416"/>
+            <a:gd name="connsiteY33" fmla="*/ 1189899 h 8037316"/>
+            <a:gd name="connsiteX34" fmla="*/ 15779750 w 15864416"/>
+            <a:gd name="connsiteY34" fmla="*/ 1105233 h 8037316"/>
+            <a:gd name="connsiteX35" fmla="*/ 15758583 w 15864416"/>
+            <a:gd name="connsiteY35" fmla="*/ 1062899 h 8037316"/>
+            <a:gd name="connsiteX36" fmla="*/ 15631583 w 15864416"/>
+            <a:gd name="connsiteY36" fmla="*/ 861816 h 8037316"/>
+            <a:gd name="connsiteX37" fmla="*/ 15377583 w 15864416"/>
+            <a:gd name="connsiteY37" fmla="*/ 565483 h 8037316"/>
+            <a:gd name="connsiteX38" fmla="*/ 15240000 w 15864416"/>
+            <a:gd name="connsiteY38" fmla="*/ 385566 h 8037316"/>
+            <a:gd name="connsiteX39" fmla="*/ 15144750 w 15864416"/>
+            <a:gd name="connsiteY39" fmla="*/ 290316 h 8037316"/>
+            <a:gd name="connsiteX40" fmla="*/ 14795500 w 15864416"/>
+            <a:gd name="connsiteY40" fmla="*/ 110399 h 8037316"/>
+            <a:gd name="connsiteX41" fmla="*/ 14679083 w 15864416"/>
+            <a:gd name="connsiteY41" fmla="*/ 78649 h 8037316"/>
+            <a:gd name="connsiteX42" fmla="*/ 14467416 w 15864416"/>
+            <a:gd name="connsiteY42" fmla="*/ 15149 h 8037316"/>
+            <a:gd name="connsiteX43" fmla="*/ 14414500 w 15864416"/>
+            <a:gd name="connsiteY43" fmla="*/ 4566 h 8037316"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="15864416" h="8037316">
+              <a:moveTo>
+                <a:pt x="0" y="7486983"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="21167" y="7490511"/>
+                <a:pt x="42427" y="7493514"/>
+                <a:pt x="63500" y="7497566"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="134158" y="7511154"/>
+                <a:pt x="203289" y="7536594"/>
+                <a:pt x="275166" y="7539899"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1195916" y="7582233"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1629833" y="7656316"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1711000" y="7670266"/>
+                <a:pt x="1792854" y="7680783"/>
+                <a:pt x="1873250" y="7698649"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1968500" y="7719816"/>
+                <a:pt x="2062754" y="7746108"/>
+                <a:pt x="2159000" y="7762149"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2232406" y="7774383"/>
+                <a:pt x="2306893" y="7780281"/>
+                <a:pt x="2381250" y="7783316"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2652754" y="7794398"/>
+                <a:pt x="2924662" y="7793402"/>
+                <a:pt x="3196166" y="7804483"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4617137" y="7862480"/>
+                <a:pt x="3541750" y="7824297"/>
+                <a:pt x="6424083" y="7846816"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6999558" y="7907393"/>
+                <a:pt x="6081405" y="7805186"/>
+                <a:pt x="7016750" y="7942066"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7174794" y="7965194"/>
+                <a:pt x="7333568" y="7985288"/>
+                <a:pt x="7493000" y="7994983"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7855964" y="8017055"/>
+                <a:pt x="8583083" y="8037316"/>
+                <a:pt x="8583083" y="8037316"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="11832166" y="8005566"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="11976719" y="8000567"/>
+                <a:pt x="12117328" y="7953083"/>
+                <a:pt x="12255500" y="7910316"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12414464" y="7861113"/>
+                <a:pt x="12572329" y="7804818"/>
+                <a:pt x="12721166" y="7730399"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12800050" y="7690957"/>
+                <a:pt x="12871130" y="7634665"/>
+                <a:pt x="12932833" y="7571649"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13312399" y="7184007"/>
+                <a:pt x="13573757" y="6629999"/>
+                <a:pt x="13790083" y="6164066"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13927666" y="5867733"/>
+                <a:pt x="14078708" y="5577284"/>
+                <a:pt x="14202833" y="5275066"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14283972" y="5077510"/>
+                <a:pt x="14375170" y="4883793"/>
+                <a:pt x="14446250" y="4682399"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14467417" y="4622427"/>
+                <a:pt x="14486495" y="4561677"/>
+                <a:pt x="14509750" y="4502483"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14525336" y="4462808"/>
+                <a:pt x="14546583" y="4425542"/>
+                <a:pt x="14562666" y="4386066"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14585410" y="4330239"/>
+                <a:pt x="14604123" y="4272841"/>
+                <a:pt x="14626166" y="4216733"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14642935" y="4174048"/>
+                <a:pt x="14661017" y="4131886"/>
+                <a:pt x="14679083" y="4089733"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14692770" y="4057798"/>
+                <a:pt x="14708943" y="4026912"/>
+                <a:pt x="14721416" y="3994483"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="14827250" y="3719316"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="14884733" y="3569859"/>
+                <a:pt x="14852910" y="3622617"/>
+                <a:pt x="14901333" y="3549983"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14915444" y="3617011"/>
+                <a:pt x="14951517" y="3683021"/>
+                <a:pt x="14943666" y="3751066"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14929723" y="3871909"/>
+                <a:pt x="14835494" y="3978694"/>
+                <a:pt x="14837833" y="4100316"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14839322" y="4177752"/>
+                <a:pt x="14915444" y="4234371"/>
+                <a:pt x="14954250" y="4301399"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15137694" y="4096788"/>
+                <a:pt x="15353354" y="3917016"/>
+                <a:pt x="15504583" y="3687566"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15606889" y="3532344"/>
+                <a:pt x="15748974" y="3396973"/>
+                <a:pt x="15811500" y="3221899"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="15864416" y="3073733"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="15859084" y="2879094"/>
+                <a:pt x="15813235" y="1194526"/>
+                <a:pt x="15811500" y="1189899"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15800917" y="1161677"/>
+                <a:pt x="15791343" y="1133056"/>
+                <a:pt x="15779750" y="1105233"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15773682" y="1090670"/>
+                <a:pt x="15766786" y="1076376"/>
+                <a:pt x="15758583" y="1062899"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15717363" y="995181"/>
+                <a:pt x="15679789" y="924752"/>
+                <a:pt x="15631583" y="861816"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15552473" y="758534"/>
+                <a:pt x="15460870" y="665427"/>
+                <a:pt x="15377583" y="565483"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15351486" y="534166"/>
+                <a:pt x="15265579" y="411145"/>
+                <a:pt x="15240000" y="385566"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15208250" y="353816"/>
+                <a:pt x="15183452" y="313082"/>
+                <a:pt x="15144750" y="290316"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14992840" y="200958"/>
+                <a:pt x="14956756" y="170124"/>
+                <a:pt x="14795500" y="110399"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14757781" y="96429"/>
+                <a:pt x="14717527" y="90478"/>
+                <a:pt x="14679083" y="78649"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14135946" y="-88468"/>
+                <a:pt x="14693487" y="71668"/>
+                <a:pt x="14467416" y="15149"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14416160" y="2335"/>
+                <a:pt x="14454925" y="4566"/>
+                <a:pt x="14414500" y="4566"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>75619</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>77756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48106A2A-1F0F-35E1-692D-7C03FEAF4C93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16677409" y="7516091"/>
+          <a:ext cx="8249801" cy="4944165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>275699</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>101637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63257167-30DE-E52F-5C0A-5BB96127C5F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15880773" y="12902046"/>
+          <a:ext cx="8640381" cy="8535591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295073</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>46482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B525BC8D-A336-0BC2-E8F7-9B6CB7869DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11897590" y="18305318"/>
+          <a:ext cx="4763165" cy="4220164"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -564,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE49" sqref="AE49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
